--- a/legendre_out/DATA/p2/p2IntegrandSplinePoints1.000000.xlsx
+++ b/legendre_out/DATA/p2/p2IntegrandSplinePoints1.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>1.874314310140285e-21</v>
+        <v>1.840603768281203e-21</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>1.86602756874882e-21</v>
+        <v>1.880928885255929e-21</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>1.875973667325494e-21</v>
+        <v>1.92825577000722e-21</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>1.902757253663095e-21</v>
+        <v>1.982161506190714e-21</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>1.944982975554434e-21</v>
+        <v>2.042223177462227e-21</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.001255480792324e-21</v>
+        <v>2.108017867477519e-21</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.070179417169677e-21</v>
+        <v>2.179122659892451e-21</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.150359432479123e-21</v>
+        <v>2.255114638362593e-21</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.240400174513557e-21</v>
+        <v>2.335570886543797e-21</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.338906291065925e-21</v>
+        <v>2.420068488091936e-21</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.444482429928781e-21</v>
+        <v>2.50818452666255e-21</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.55573323889506e-21</v>
+        <v>2.599496085911507e-21</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.671263365757729e-21</v>
+        <v>2.693580249494692e-21</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.789677458309297e-21</v>
+        <v>2.790014101067621e-21</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.909580164342724e-21</v>
+        <v>2.888374724286172e-21</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>3.029576131650824e-21</v>
+        <v>2.988239202806109e-21</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>3.148270008026563e-21</v>
+        <v>3.089184620283324e-21</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>3.264266441262442e-21</v>
+        <v>3.190788060373314e-21</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>3.376208603724741e-21</v>
+        <v>3.292629112570436e-21</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>3.483514386908315e-21</v>
+        <v>3.39433775812752e-21</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>3.58631916945691e-21</v>
+        <v>3.495590647390084e-21</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>3.684785387053843e-21</v>
+        <v>3.596066190634497e-21</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>3.779075475382286e-21</v>
+        <v>3.695442798136985e-21</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>3.869351870125527e-21</v>
+        <v>3.793398880173914e-21</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>3.955777006966499e-21</v>
+        <v>3.889612847021253e-21</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>4.038513321588499e-21</v>
+        <v>3.98376310895537e-21</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>4.117723249674798e-21</v>
+        <v>4.075528076252612e-21</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>4.19356922690836e-21</v>
+        <v>4.164586159188971e-21</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>4.266213688972465e-21</v>
+        <v>4.2506157680408e-21</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>4.335819071550284e-21</v>
+        <v>4.333295313084335e-21</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>4.402547810325075e-21</v>
+        <v>4.412303204595906e-21</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>4.466562340979834e-21</v>
+        <v>4.487317852851537e-21</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>4.528025099197823e-21</v>
+        <v>4.558017668127568e-21</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>4.587098520662291e-21</v>
+        <v>4.624081060700316e-21</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>4.64389230055912e-21</v>
+        <v>4.685208403759416e-21</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>4.698163155669303e-21</v>
+        <v>4.741247062552637e-21</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>4.749522932848319e-21</v>
+        <v>4.792104731028189e-21</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>4.797583037252924e-21</v>
+        <v>4.837689287072174e-21</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>4.841954874040084e-21</v>
+        <v>4.877908608570898e-21</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>4.882249848366686e-21</v>
+        <v>4.912670573410598e-21</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>4.918079365389671e-21</v>
+        <v>4.941883059477542e-21</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>4.949054830265836e-21</v>
+        <v>4.965453944657895e-21</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>4.974787648152122e-21</v>
+        <v>4.983291106837929e-21</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>4.99488922420545e-21</v>
+        <v>4.995302423903899e-21</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>5.008970963582654e-21</v>
+        <v>5.001395773742004e-21</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>5.016644271440659e-21</v>
+        <v>5.001479034238501e-21</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>5.017520552936359e-21</v>
+        <v>4.995460083279628e-21</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>5.01121121322663e-21</v>
+        <v>4.9832467987516e-21</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>4.997327657468386e-21</v>
+        <v>4.964747058540685e-21</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>4.975541976855572e-21</v>
+        <v>4.939910477278423e-21</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>4.94630644119094e-21</v>
+        <v>4.909223236448861e-21</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>4.910614565483187e-21</v>
+        <v>4.873543758242651e-21</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>4.8694707521888e-21</v>
+        <v>4.833737952678875e-21</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>4.823879403764242e-21</v>
+        <v>4.790671729776587e-21</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>4.774844922666154e-21</v>
+        <v>4.745210999555017e-21</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>4.723371711351005e-21</v>
+        <v>4.698221672033224e-21</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>4.670464172275312e-21</v>
+        <v>4.650569657230326e-21</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>4.617126707895534e-21</v>
+        <v>4.603120865165372e-21</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>4.564363720668332e-21</v>
+        <v>4.556741205857606e-21</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>4.513179613050158e-21</v>
+        <v>4.51229658932608e-21</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>4.464578787497474e-21</v>
+        <v>4.470652925589853e-21</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>4.419537274979798e-21</v>
+        <v>4.432649183617016e-21</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>4.378333351782622e-21</v>
+        <v>4.398461757145294e-21</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>4.340521458160866e-21</v>
+        <v>4.367579698306974e-21</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>4.305622444410698e-21</v>
+        <v>4.339460162816934e-21</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>4.273157160828415e-21</v>
+        <v>4.313560306390153e-21</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>4.242646457710181e-21</v>
+        <v>4.289337284741503e-21</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>4.21361118535217e-21</v>
+        <v>4.266248253585863e-21</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>4.185572194050664e-21</v>
+        <v>4.2437503686382e-21</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>4.158050334101834e-21</v>
+        <v>4.221300785613395e-21</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>4.130566455801855e-21</v>
+        <v>4.198356660226323e-21</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>4.102641409447008e-21</v>
+        <v>4.174375148191957e-21</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>4.073796045333466e-21</v>
+        <v>4.148813405225173e-21</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>4.043551213757439e-21</v>
+        <v>4.121128587040881e-21</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>4.01142776501509e-21</v>
+        <v>4.090777849353944e-21</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>3.976946549402717e-21</v>
+        <v>4.057218347879357e-21</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>3.939628417216484e-21</v>
+        <v>4.019907238331985e-21</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>3.89899421875255e-21</v>
+        <v>3.978301676426683e-21</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>3.854564804307227e-21</v>
+        <v>3.931858817878468e-21</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>3.805861024176674e-21</v>
+        <v>3.880035818402196e-21</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>3.752403728657102e-21</v>
+        <v>3.822289833712777e-21</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>3.693713768044638e-21</v>
+        <v>3.758078019525031e-21</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>3.629311992635647e-21</v>
+        <v>3.686857531554033e-21</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>3.558719252726263e-21</v>
+        <v>3.608085525514615e-21</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.481456398612591e-21</v>
+        <v>3.521219157121564e-21</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.397044280591043e-21</v>
+        <v>3.425715582090018e-21</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.305003748957731e-21</v>
+        <v>3.321031956134776e-21</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.205278826239723e-21</v>
+        <v>3.207189546412976e-21</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.100013244627433e-21</v>
+        <v>3.087141951884733e-21</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>2.992063243016784e-21</v>
+        <v>2.964792581435998e-21</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.884285425855365e-21</v>
+        <v>2.844045331252917e-21</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.779536397590769e-21</v>
+        <v>2.72880409752165e-21</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.680672762670998e-21</v>
+        <v>2.622972776428807e-21</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.590551125543637e-21</v>
+        <v>2.530455264160533e-21</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.512028090656318e-21</v>
+        <v>2.455155456903047e-21</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.447960262456976e-21</v>
+        <v>2.400977250842854e-21</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.401204245393224e-21</v>
+        <v>2.371824542166146e-21</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.374616643912789e-21</v>
+        <v>2.371601227059226e-21</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.371054062463407e-21</v>
+        <v>2.404211201708463e-21</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.393373105492816e-21</v>
+        <v>2.473558362300079e-21</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>1.645395344565033e-22</v>
+        <v>1.65536868201944e-22</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>2.121387968213022e-22</v>
+        <v>2.140314146611916e-22</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>2.020892403587425e-22</v>
+        <v>2.069097469596216e-22</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>2.740322953109098e-22</v>
+        <v>2.760809945898537e-22</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>3.424303896875805e-22</v>
+        <v>3.409106095775937e-22</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>3.489665085616828e-22</v>
+        <v>3.475863241231293e-22</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>5.673769832758372e-22</v>
+        <v>5.694907866031977e-22</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>1.493229636320405e-21</v>
+        <v>1.498591947498701e-21</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>3.006087457054255e-21</v>
+        <v>3.014249565348802e-21</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>3.71411052960748e-21</v>
+        <v>3.727941266356709e-21</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>3.897497452891635e-21</v>
+        <v>3.905815793900719e-21</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>3.893698563287339e-21</v>
+        <v>3.886985109667679e-21</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>3.743646357565623e-21</v>
+        <v>3.733850940978837e-21</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>3.533240387759042e-21</v>
+        <v>3.532056186428923e-21</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>3.368783788940574e-21</v>
+        <v>3.374722678876953e-21</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>3.26064227260728e-21</v>
+        <v>3.262808805344124e-21</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>3.204346312277528e-21</v>
+        <v>3.194941470504765e-21</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>3.244381840563522e-21</v>
+        <v>3.247269889831057e-21</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>3.15448718171054e-21</v>
+        <v>3.162484186528893e-21</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>3.056070343479853e-21</v>
+        <v>3.051939581555e-21</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>3.075273597180767e-21</v>
+        <v>3.06769394455404e-21</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>3.041300476308731e-21</v>
+        <v>3.035273355063739e-21</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>2.970584952371734e-21</v>
+        <v>2.96763184086667e-21</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>2.90276670527504e-21</v>
+        <v>2.902189048441404e-21</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>2.832395197212551e-21</v>
+        <v>2.833271773211025e-21</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>2.74913514776603e-21</v>
+        <v>2.75053844800217e-21</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>2.643046088409618e-21</v>
+        <v>2.644072791249208e-21</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>2.508215913048879e-21</v>
+        <v>2.508297814599045e-21</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>2.341087583036233e-21</v>
+        <v>2.340173373977407e-21</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>2.138357635781493e-21</v>
+        <v>2.136909861894755e-21</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>1.905428088937953e-21</v>
+        <v>1.904216142094791e-21</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>1.659009169062328e-21</v>
+        <v>1.658840387512355e-21</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>1.416566797258068e-21</v>
+        <v>1.418268495847262e-21</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>1.193577574760553e-21</v>
+        <v>1.197853725947984e-21</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>9.923987733603205e-22</v>
+        <v>9.988848354598189e-22</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>8.100921196574971e-22</v>
+        <v>8.16978206317446e-22</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>6.463914080918284e-22</v>
+        <v>6.513278316128833e-22</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>5.065759709681012e-22</v>
+        <v>5.085442913055523e-22</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>3.963276349712338e-22</v>
+        <v>3.958258122855797e-22</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>3.157355296954847e-22</v>
+        <v>3.13867116215654e-22</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.597595995410661e-22</v>
+        <v>2.573984174409716e-22</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.231699546261664e-22</v>
+        <v>2.209291802418665e-22</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.007367050690173e-22</v>
+        <v>1.989688688987162e-22</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>1.872299609877994e-22</v>
+        <v>1.860269476918471e-22</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>1.776220735379935e-22</v>
+        <v>1.76827100234168e-22</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>1.696637137447538e-22</v>
+        <v>1.690358838309474e-22</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.631242567758003e-22</v>
+        <v>1.624581233709153e-22</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.578185208287422e-22</v>
+        <v>1.56946778264181e-22</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.535613241011912e-22</v>
+        <v>1.523548079208559e-22</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.501674847907644e-22</v>
+        <v>1.485351717510572e-22</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.47451821095073e-22</v>
+        <v>1.453408291648959e-22</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.452291512117303e-22</v>
+        <v>1.426247395724851e-22</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.433142933383488e-22</v>
+        <v>1.402398623839371e-22</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.415465339245478e-22</v>
+        <v>1.380581464063661e-22</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.398863751518229e-22</v>
+        <v>1.36045613928502e-22</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.383317871003049e-22</v>
+        <v>1.341973654422001e-22</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.368807508190866e-22</v>
+        <v>1.325085099521428e-22</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.355312473572588e-22</v>
+        <v>1.309741564630098e-22</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.342812577639132e-22</v>
+        <v>1.29589413979482e-22</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.331287630881406e-22</v>
+        <v>1.283493915062394e-22</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.320717443790338e-22</v>
+        <v>1.272491980479639e-22</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.311081826856837e-22</v>
+        <v>1.262839426093357e-22</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.302360590571814e-22</v>
+        <v>1.25448734195035e-22</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.294533545426195e-22</v>
+        <v>1.247386818097434e-22</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.287580501910888e-22</v>
+        <v>1.241488944581413e-22</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.28148127051681e-22</v>
+        <v>1.236744811449091e-22</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.276215661734874e-22</v>
+        <v>1.233105508747277e-22</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.271763486055999e-22</v>
+        <v>1.230522126522779e-22</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.2681045539711e-22</v>
+        <v>1.228945754822404e-22</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.26521867597109e-22</v>
+        <v>1.228327483692959e-22</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.263085662546888e-22</v>
+        <v>1.22861840318125e-22</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.261685324189407e-22</v>
+        <v>1.229769603334085e-22</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.260997471389562e-22</v>
+        <v>1.231732174198271e-22</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.261001914638269e-22</v>
+        <v>1.234457205820616e-22</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>1.261678464426444e-22</v>
+        <v>1.237895788247925e-22</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>1.263006931245001e-22</v>
+        <v>1.241999011527006e-22</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>1.264967125584859e-22</v>
+        <v>1.246717965704669e-22</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>1.267538857936928e-22</v>
+        <v>1.252003740827717e-22</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>1.270701938792127e-22</v>
+        <v>1.257807426942958e-22</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>1.27443617864137e-22</v>
+        <v>1.2640801140972e-22</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>1.278721387975575e-22</v>
+        <v>1.270772892337253e-22</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>1.283537377285653e-22</v>
+        <v>1.277836851709918e-22</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>1.288863957062522e-22</v>
+        <v>1.285223082262004e-22</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>1.294680937797097e-22</v>
+        <v>1.292882674040321e-22</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>1.300968129980296e-22</v>
+        <v>1.300766717091677e-22</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>1.307705344103029e-22</v>
+        <v>1.308826301462874e-22</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>1.314872390656215e-22</v>
+        <v>1.317012517200721e-22</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>1.32244908502067e-22</v>
+        <v>1.325276462549302e-22</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>1.330432714363282e-22</v>
+        <v>1.333598524906987e-22</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>1.338877279881868e-22</v>
+        <v>1.342054165295131e-22</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>1.347848270154427e-22</v>
+        <v>1.350738101819e-22</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>1.357411173758947e-22</v>
+        <v>1.359745052583846e-22</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>1.367631479273426e-22</v>
+        <v>1.369169735694937e-22</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>1.37857467527586e-22</v>
+        <v>1.379106869257534e-22</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>1.39030625034425e-22</v>
+        <v>1.389651171376903e-22</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>1.40289169305658e-22</v>
+        <v>1.400897360158296e-22</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>1.416396491990851e-22</v>
+        <v>1.41294015370698e-22</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>1.430886135725059e-22</v>
+        <v>1.425874270128217e-22</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>1.446426112837205e-22</v>
+        <v>1.439794427527275e-22</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>1.463081911905271e-22</v>
+        <v>1.454795344009403e-22</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>1.480919021507258e-22</v>
+        <v>1.470971737679869e-22</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>1.500002930221172e-22</v>
+        <v>1.488418326643943e-22</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>1.52039912662499e-22</v>
+        <v>1.507229829006872e-22</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>1.542173099296716e-22</v>
+        <v>1.527500962873923e-22</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>1.565390336814345e-22</v>
+        <v>1.54932644635036e-22</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>1.590116327755884e-22</v>
+        <v>1.572800997541454e-22</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>1.616416560699306e-22</v>
+        <v>1.598019334552446e-22</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>1.644356524222618e-22</v>
+        <v>1.62507617548861e-22</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>1.674001706903827e-22</v>
+        <v>1.654066238455219e-22</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>1.705417597320902e-22</v>
+        <v>1.685084241557508e-22</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>1.738669684051853e-22</v>
+        <v>1.718224902900754e-22</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>1.773823455674674e-22</v>
+        <v>1.753582940590217e-22</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>1.810944400767378e-22</v>
+        <v>1.791253072731177e-22</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>1.850098007907925e-22</v>
+        <v>1.831330017428862e-22</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>1.891438839557749e-22</v>
+        <v>1.873987478002819e-22</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>1.935597368268929e-22</v>
+        <v>1.91982116542557e-22</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>1.983362357274517e-22</v>
+        <v>1.969567153061761e-22</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>2.03552267640725e-22</v>
+        <v>2.023961608802061e-22</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>2.092867195499843e-22</v>
+        <v>2.083740700537113e-22</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>2.156184784385045e-22</v>
+        <v>2.149640596157597e-22</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>2.226264312895517e-22</v>
+        <v>2.222397463554102e-22</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>2.303894650864001e-22</v>
+        <v>2.302747470617302e-22</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>2.389864668123258e-22</v>
+        <v>2.391426785237885e-22</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>2.484963234505925e-22</v>
+        <v>2.489171575306419e-22</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>2.589979219844759e-22</v>
+        <v>2.596718008713589e-22</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>2.705701493972476e-22</v>
+        <v>2.714802253350042e-22</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>2.832918926721853e-22</v>
+        <v>2.844160477106485e-22</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>2.972420387925492e-22</v>
+        <v>2.985528847873449e-22</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>3.124994747416168e-22</v>
+        <v>3.139643533541638e-22</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>3.291430875026674e-22</v>
+        <v>3.307240702001775e-22</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>3.472517640589577e-22</v>
+        <v>3.489056521144358e-22</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>3.66935632800073e-22</v>
+        <v>3.686147055317508e-22</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>3.886366870446404e-22</v>
+        <v>3.902966500633847e-22</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>4.129970372346422e-22</v>
+        <v>4.146018152987206e-22</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>4.406615533927025e-22</v>
+        <v>4.421833565004261e-22</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>4.722751055414771e-22</v>
+        <v>4.736944289311999e-22</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>5.084825637036117e-22</v>
+        <v>5.097881878537307e-22</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>5.499287979017719e-22</v>
+        <v>5.511177885307271e-22</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>5.972586781585661e-22</v>
+        <v>5.983363862248408e-22</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>6.511170744966575e-22</v>
+        <v>6.520971361987778e-22</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>7.121488569387208e-22</v>
+        <v>7.130531937152563e-22</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>7.80998895507347e-22</v>
+        <v>7.8185771403691e-22</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>8.583120602252076e-22</v>
+        <v>8.591638524264535e-22</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>9.447332211149893e-22</v>
+        <v>9.456247641466166e-22</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>1.040732740658024e-21</v>
+        <v>1.041718172438429e-21</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>1.144643326732441e-21</v>
+        <v>1.145772821388053e-21</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>1.253364966715952e-21</v>
+        <v>1.254677144525618e-21</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>1.363771242022865e-21</v>
+        <v>1.365293029528228e-21</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.472735734067338e-21</v>
+        <v>1.474482364072835e-21</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.577132024263678e-21</v>
+        <v>1.57910703583654e-21</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.673833694026145e-21</v>
+        <v>1.676028932496396e-21</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.759714324769031e-21</v>
+        <v>1.762109941729492e-21</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.831647497906516e-21</v>
+        <v>1.834211951212803e-21</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.8865067948529e-21</v>
+        <v>1.889196848623422e-21</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.921165797022452e-21</v>
+        <v>1.923926521638412e-21</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.932498085829398e-21</v>
+        <v>1.935262857934794e-21</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.917377242688015e-21</v>
+        <v>1.920067745189641e-21</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.872975196355399e-21</v>
+        <v>1.875502741111942e-21</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.800708331916512e-21</v>
+        <v>1.802992677054208e-21</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.705151581931272e-21</v>
+        <v>1.707134934905837e-21</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.590955082160455e-21</v>
+        <v>1.592602433161947e-21</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.462768968364803e-21</v>
+        <v>1.464068090317621e-21</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.325243376305237e-21</v>
+        <v>1.326204824868123e-21</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.183028441742506e-21</v>
+        <v>1.183685555308541e-21</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>1.040774300437412e-21</v>
+        <v>1.04118320013402e-21</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>9.031310881506984e-22</v>
+        <v>9.033706778396452e-22</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>7.747489406432935e-22</v>
+        <v>7.749209069206859e-22</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>6.602779936759371e-22</v>
+        <v>6.605068058722238e-22</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>5.643683830093943e-22</v>
+        <v>5.648012931893653e-22</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>4.916702444045562e-22</v>
+        <v>4.924772873673429e-22</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>4.468337136221782e-22</v>
+        <v>4.482077069012537e-22</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>4.331326207983713e-22</v>
+        <v>4.352680686658578e-22</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>4.345817050059924e-22</v>
+        <v>4.373795953616494e-22</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>4.210242230002504e-22</v>
+        <v>4.238748070647592e-22</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>3.620242302480548e-22</v>
+        <v>3.638031187727055e-22</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.536983104592714e-22</v>
+        <v>2.53375164056507e-22</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>1.618615194968092e-22</v>
+        <v>1.600953706787683e-22</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>1.247139571738162e-22</v>
+        <v>1.230511985735431e-22</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>1.166892125812226e-22</v>
+        <v>1.158262870706845e-22</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>1.101207950939923e-22</v>
+        <v>1.098696331834781e-22</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>9.900474108981663e-23</v>
+        <v>9.901308269535665e-23</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>8.505725480305252e-23</v>
+        <v>8.506536006111819e-23</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>7.000400780971911e-23</v>
+        <v>6.984497188501374e-23</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>5.553844465052571e-23</v>
+        <v>5.513671243473695e-23</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>4.271853351525958e-23</v>
+        <v>4.206061136621409e-23</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>3.202049174453437e-23</v>
+        <v>3.112813536235807e-23</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.389908103305711e-23</v>
+        <v>2.282830659795713e-23</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>1.880906307554531e-23</v>
+        <v>1.765014724781023e-23</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>1.720519956670476e-23</v>
+        <v>1.608267948670431e-23</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>1.954225220124546e-23</v>
+        <v>1.861492548943067e-23</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.627498267388155e-23</v>
+        <v>2.573590743078494e-23</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>3.785815267931716e-23</v>
+        <v>3.79346474855522e-23</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>5.560467423732464e-23</v>
+        <v>5.65165160970934e-23</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>9.079191464546331e-23</v>
+        <v>9.226595232378063e-23</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>1.552540946845339e-22</v>
+        <v>1.564208490332802e-22</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>2.318243810463237e-22</v>
+        <v>2.322522782637885e-22</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>2.947801160907455e-22</v>
+        <v>2.947852730175843e-22</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>3.353462005944049e-22</v>
+        <v>3.355457516425795e-22</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>3.663413954338807e-22</v>
+        <v>3.670843286181944e-22</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>4.019856332985241e-22</v>
+        <v>4.033158586039358e-22</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>4.564975829982503e-22</v>
+        <v>4.581539517874962e-22</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>5.374231228456404e-22</v>
+        <v>5.389418925289904e-22</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>6.300592268400921e-22</v>
+        <v>6.311157060437182e-22</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>7.150714150507647e-22</v>
+        <v>7.155510823484982e-22</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>7.731252075468353e-22</v>
+        <v>7.731237114601675e-22</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>7.869738157851194e-22</v>
+        <v>7.86783500665443e-22</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>7.674458661083188e-22</v>
+        <v>7.673745712906113e-22</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>7.454712078112172e-22</v>
+        <v>7.457125328042183e-22</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>7.524165232462607e-22</v>
+        <v>7.530470083789532e-22</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>8.114897040525183e-22</v>
+        <v>8.12496470112574e-22</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>9.108702813671058e-22</v>
+        <v>9.122696956205941e-22</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>1.029339164954704e-21</v>
+        <v>1.031208680974534e-21</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.145677149648655e-21</v>
+        <v>1.148155307703932e-21</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.238665084086805e-21</v>
+        <v>1.24195151075271e-21</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.292928755470112e-21</v>
+        <v>1.297241783989656e-21</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.315020236100887e-21</v>
+        <v>1.320437926436583e-21</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.316632127873726e-21</v>
+        <v>1.323054994496402e-21</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.309457032683198e-21</v>
+        <v>1.316608044571991e-21</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.304794263344345e-21</v>
+        <v>1.312228514457588e-21</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.30776868624675e-21</v>
+        <v>1.315025217190748e-21</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.318599414107101e-21</v>
+        <v>1.325321838287507e-21</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.337370224656595e-21</v>
+        <v>1.343310055991047e-21</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.364164895626404e-21</v>
+        <v>1.36918154854452e-21</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.399067204747726e-21</v>
+        <v>1.403127994191103e-21</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.442160929751749e-21</v>
+        <v>1.445341071173968e-21</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.493529848369687e-21</v>
+        <v>1.496012457736307e-21</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.553250961564941e-21</v>
+        <v>1.555326637889436e-21</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.620518562741915e-21</v>
+        <v>1.622531011323504e-21</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.692777782339351e-21</v>
+        <v>1.695016062407642e-21</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.767267837680576e-21</v>
+        <v>1.769953677686584e-21</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.841227946089012e-21</v>
+        <v>1.844515743705167e-21</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>1.911897324888054e-21</v>
+        <v>1.915874147008194e-21</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>1.976515191401123e-21</v>
+        <v>1.981200774140496e-21</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>2.032320762951549e-21</v>
+        <v>2.037667511646816e-21</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>2.076553256862758e-21</v>
+        <v>2.082446246071988e-21</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>2.106456432833746e-21</v>
+        <v>2.112713540391844e-21</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>2.120213343301863e-21</v>
+        <v>2.12661297090056e-21</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.118091210265774e-21</v>
+        <v>2.12443379184892e-21</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>2.100637481255078e-21</v>
+        <v>2.106753753086025e-21</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.068399603799353e-21</v>
+        <v>2.074150604460963e-21</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>2.021925025428226e-21</v>
+        <v>2.027202095822868e-21</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>1.961761193671284e-21</v>
+        <v>1.96648597702083e-21</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>1.888455556058087e-21</v>
+        <v>1.892579997903919e-21</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>1.8025555601183e-21</v>
+        <v>1.806061908321306e-21</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>1.704695642315757e-21</v>
+        <v>1.707595574515345e-21</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>1.596833261443213e-21</v>
+        <v>1.599154614504942e-21</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>1.481955403951543e-21</v>
+        <v>1.483731847307922e-21</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>1.363076186266456e-21</v>
+        <v>1.364346949790205e-21</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>1.243209724813506e-21</v>
+        <v>1.244019598817557e-21</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>1.125370136018243e-21</v>
+        <v>1.125769471255743e-21</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>1.012571536306379e-21</v>
+        <v>1.012616243970687e-21</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>9.078280421034631e-22</v>
+        <v>9.075795938281503e-22</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>8.141537698351001e-22</v>
+        <v>8.136791976939502e-22</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>7.337957015426001e-22</v>
+        <v>7.331657212690849e-22</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>6.658371076362813e-22</v>
+        <v>6.651183786597492e-22</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>6.085458037361357e-22</v>
+        <v>6.077989341862788e-22</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>5.601896046274084e-22</v>
+        <v>5.594691513322213e-22</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>5.190363250953279e-22</v>
+        <v>5.183907935811071e-22</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>4.833537799251757e-22</v>
+        <v>4.828256244165196e-22</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>4.514097839021776e-22</v>
+        <v>4.510354073219868e-22</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>4.214721518115651e-22</v>
+        <v>4.212819057810426e-22</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>3.91813951366653e-22</v>
+        <v>3.918321237005874e-22</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>3.616934490073741e-22</v>
+        <v>3.619359184259507e-22</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>3.325070695343194e-22</v>
+        <v>3.329762157280487e-22</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>3.059314757880987e-22</v>
+        <v>3.066155123047272e-22</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>2.836433306092812e-22</v>
+        <v>2.845163048537916e-22</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>2.673192968384494e-22</v>
+        <v>2.683410900730609e-22</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>2.586360373161839e-22</v>
+        <v>2.59752364660352e-22</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>2.592702148830759e-22</v>
+        <v>2.604126253134922e-22</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>2.708984923797022e-22</v>
+        <v>2.719843687302947e-22</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>2.951635868518154e-22</v>
+        <v>2.960964064848573e-22</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>3.318066205355019e-22</v>
+        <v>3.324905577638027e-22</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>3.776964365406829e-22</v>
+        <v>3.780584189732609e-22</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>4.294633842412157e-22</v>
+        <v>4.294549241861847e-22</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>4.837378130109679e-22</v>
+        <v>4.833350074755373e-22</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>5.371500722237328e-22</v>
+        <v>5.36353602914208e-22</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>5.863305112533777e-22</v>
+        <v>5.851656445751596e-22</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>6.279094794737622e-22</v>
+        <v>6.264260665313473e-22</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>6.585173262586914e-22</v>
+        <v>6.567898028556721e-22</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>6.754439500219957e-22</v>
+        <v>6.735666105871282e-22</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>6.794310642851996e-22</v>
+        <v>6.774933274972329e-22</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>6.723458325569169e-22</v>
+        <v>6.704241768042426e-22</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>6.56056037718412e-22</v>
+        <v>6.542139966608795e-22</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>6.324294626509425e-22</v>
+        <v>6.307176252198583e-22</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>6.033338902357662e-22</v>
+        <v>6.017899006338943e-22</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>5.70637103354125e-22</v>
+        <v>5.692856610556873e-22</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>5.362068848873072e-22</v>
+        <v>5.350597446379826e-22</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>5.019109903115248e-22</v>
+        <v>5.00966962316004e-22</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>4.692498551071345e-22</v>
+        <v>4.684973188905349e-22</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>4.384357513457988e-22</v>
+        <v>4.378614716752736e-22</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>4.093987273506343e-22</v>
+        <v>4.089897857158251e-22</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>3.820688314447728e-22</v>
+        <v>3.818126260578093e-22</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>3.563761119513348e-22</v>
+        <v>3.562603577468349e-22</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>3.322506171934752e-22</v>
+        <v>3.322633458285449e-22</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>3.096223954943135e-22</v>
+        <v>3.09751955348547e-22</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.884214951769817e-22</v>
+        <v>2.886565513524615e-22</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.685779645646027e-22</v>
+        <v>2.689074988858994e-22</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>2.500218519803262e-22</v>
+        <v>2.504351629944985e-22</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>2.326832057472744e-22</v>
+        <v>2.331699087238693e-22</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>2.164920741885722e-22</v>
+        <v>2.170421011196249e-22</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>2.013785056273658e-22</v>
+        <v>2.019821052273995e-22</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.872725483867794e-22</v>
+        <v>1.879202860928056e-22</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.741042507899389e-22</v>
+        <v>1.747870087614574e-22</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.618036611599879e-22</v>
+        <v>1.625126382789865e-22</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.503008278200519e-22</v>
+        <v>1.510275396910066e-22</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.395300204229269e-22</v>
+        <v>1.402663177373612e-22</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.294537080955982e-22</v>
+        <v>1.301918993116542e-22</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.200459141146299e-22</v>
+        <v>1.207788157224777e-22</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.112806966631639e-22</v>
+        <v>1.120016333368603e-22</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.031321139243472e-22</v>
+        <v>1.038349185218352e-22</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>9.557422408132335e-23</v>
+        <v>9.625323764443247e-23</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>8.858108531724588e-23</v>
+        <v>8.923115707169212e-23</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>8.212675581525805e-23</v>
+        <v>8.274324317064387e-23</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>7.618529375850416e-23</v>
+        <v>7.676406230831835e-23</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>7.073075733013633e-23</v>
+        <v>7.12681808517542e-23</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>6.573720471329857e-23</v>
+        <v>6.623016516798186e-23</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>6.117869409113575e-23</v>
+        <v>6.162458162403263e-23</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>5.702928364679874e-23</v>
+        <v>5.742599658694386e-23</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>5.326303156343223e-23</v>
+        <v>5.360897642374666e-23</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>4.985399602418155e-23</v>
+        <v>5.014808750147276e-23</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>4.67762352121979e-23</v>
+        <v>4.701789618715987e-23</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>4.400380731062251e-23</v>
+        <v>4.41929688478356e-23</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>4.151077050260507e-23</v>
+        <v>4.164787185053611e-23</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>3.927118297129428e-23</v>
+        <v>3.935717156229659e-23</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>3.725910289983287e-23</v>
+        <v>3.729543435014611e-23</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>3.544858847137132e-23</v>
+        <v>3.543722658112169e-23</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>3.381369786905314e-23</v>
+        <v>3.37571146222532e-23</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>3.232848927602681e-23</v>
+        <v>3.222966484057559e-23</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>3.096702087544029e-23</v>
+        <v>3.082944360312332e-23</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>2.970335085043793e-23</v>
+        <v>2.953101727692709e-23</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>2.851153738416776e-23</v>
+        <v>2.830895222902143e-23</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>2.736689199268526e-23</v>
+        <v>2.713902605815109e-23</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>2.625933921384843e-23</v>
+        <v>2.601113851311756e-23</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>2.518825181258815e-23</v>
+        <v>2.492432019069487e-23</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>2.415316094656066e-23</v>
+        <v>2.387775475975017e-23</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>2.315359777341937e-23</v>
+        <v>2.287062588914779e-23</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>2.218909345082054e-23</v>
+        <v>2.190211724775495e-23</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>2.12591791364203e-23</v>
+        <v>2.097141250443868e-23</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>2.036338598787226e-23</v>
+        <v>2.007769532806356e-23</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>1.950124516283258e-23</v>
+        <v>1.922014938749666e-23</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>1.867228781895729e-23</v>
+        <v>1.839795835160494e-23</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>1.787604511390019e-23</v>
+        <v>1.761030588925316e-23</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>1.711204820531803e-23</v>
+        <v>1.685637566930898e-23</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>1.637982825086472e-23</v>
+        <v>1.613535136063725e-23</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>1.567891640819626e-23</v>
+        <v>1.544641663210491e-23</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>1.500884383496856e-23</v>
+        <v>1.478875515257878e-23</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>1.436914168883568e-23</v>
+        <v>1.41615505909239e-23</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>1.375934112745357e-23</v>
+        <v>1.356398661600712e-23</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>1.317897032949066e-23</v>
+        <v>1.299524976967126e-23</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>1.262747140153648e-23</v>
+        <v>1.24546096028449e-23</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>1.21041893227038e-23</v>
+        <v>1.194142933752516e-23</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>1.160846387191163e-23</v>
+        <v>1.145507721084684e-23</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>1.113963482807766e-23</v>
+        <v>1.099492145994344e-23</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>1.069704197012132e-23</v>
+        <v>1.056033032195017e-23</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>1.028002507696039e-23</v>
+        <v>1.015067203400062e-23</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>9.887923927513871e-24</v>
+        <v>9.76531483322959e-24</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>9.520078300700665e-24</v>
+        <v>9.403626956771759e-24</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>9.175827975438695e-24</v>
+        <v>9.064976641760861e-24</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>8.854512730646877e-24</v>
+        <v>8.748732125331605e-24</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>8.55547234524406e-24</v>
+        <v>8.454261644618626e-24</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>8.278046598148289e-24</v>
+        <v>8.180933436755776e-24</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>8.021575268278422e-24</v>
+        <v>7.928115738877707e-24</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>7.78539813455325e-24</v>
+        <v>7.695176788118998e-24</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>7.568854975890926e-24</v>
+        <v>7.481484821613606e-24</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>7.371285571210257e-24</v>
+        <v>7.286408076496131e-24</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>7.192029699429982e-24</v>
+        <v>7.109314789901102e-24</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>7.030427139468356e-24</v>
+        <v>6.949573198962581e-24</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>6.885817670244257e-24</v>
+        <v>6.806551540815234e-24</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>6.757541070676009e-24</v>
+        <v>6.67961805259318e-24</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>6.64493711968233e-24</v>
+        <v>6.568140971430936e-24</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>6.547345596181884e-24</v>
+        <v>6.471488534462962e-24</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>6.464106279093082e-24</v>
+        <v>6.389028978823462e-24</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>6.394558947334598e-24</v>
+        <v>6.320130541646906e-24</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>6.338043379825058e-24</v>
+        <v>6.264161460067718e-24</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>6.293899355482951e-24</v>
+        <v>6.220489971220178e-24</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>6.261466653226908e-24</v>
+        <v>6.18848431223872e-24</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>6.240085051975531e-24</v>
+        <v>6.167512720257735e-24</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>6.229094330647365e-24</v>
+        <v>6.156943432411566e-24</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>6.227834268161014e-24</v>
+        <v>6.156144685834612e-24</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>6.235644643435049e-24</v>
+        <v>6.164484717661241e-24</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>6.251865235388075e-24</v>
+        <v>6.181331765025852e-24</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>6.275835822938639e-24</v>
+        <v>6.206054065062788e-24</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>6.306896185005368e-24</v>
+        <v>6.238019854906474e-24</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>6.344418308546486e-24</v>
+        <v>6.276628562285615e-24</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>6.388266250098973e-24</v>
+        <v>6.321756140131421e-24</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>6.438688117322461e-24</v>
+        <v>6.373650460402204e-24</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>6.495942205372413e-24</v>
+        <v>6.43256926073122e-24</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>6.560286809404273e-24</v>
+        <v>6.498770278751695e-24</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>6.631980224573661e-24</v>
+        <v>6.572511252097048e-24</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>6.711280746036029e-24</v>
+        <v>6.65404991840051e-24</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>6.798446668946796e-24</v>
+        <v>6.743644015295291e-24</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>6.893736288461623e-24</v>
+        <v>6.841551280414848e-24</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>6.997407899735849e-24</v>
+        <v>6.948029451392297e-24</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>7.109719797925155e-24</v>
+        <v>7.06333626586112e-24</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>7.230930278184961e-24</v>
+        <v>7.187729461454519e-24</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>7.361297635670647e-24</v>
+        <v>7.321466775805663e-24</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>7.501080165537954e-24</v>
+        <v>7.464805946548088e-24</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>7.650536162942272e-24</v>
+        <v>7.61800471131497e-24</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>7.809923923038958e-24</v>
+        <v>7.781320807739448e-24</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>7.979501740983804e-24</v>
+        <v>7.955011973455108e-24</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>8.159527911932173e-24</v>
+        <v>8.139335946095108e-24</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>8.350260731039391e-24</v>
+        <v>8.334550463292552e-24</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>8.551958493461311e-24</v>
+        <v>8.540913262681092e-24</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>8.764879494353267e-24</v>
+        <v>8.758682081893846e-24</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>8.989282028870557e-24</v>
+        <v>8.988114658563897e-24</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>9.225901243422019e-24</v>
+        <v>9.229941620295732e-24</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>9.480600386827099e-24</v>
+        <v>9.489979097110363e-24</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>9.762364076761099e-24</v>
+        <v>9.777138658157818e-24</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>1.008022115935191e-23</v>
+        <v>1.010037573362767e-23</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>1.044320048072634e-23</v>
+        <v>1.04686457537084e-23</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>1.086033088701244e-23</v>
+        <v>1.089090414858971e-23</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>1.134064122433728e-23</v>
+        <v>1.137610634846039e-23</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>1.189316033882774e-23</v>
+        <v>1.193320778350895e-23</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>1.252691707661221e-23</v>
+        <v>1.257116388392546e-23</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>1.325094028381761e-23</v>
+        <v>1.329893007989852e-23</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>1.407425880657054e-23</v>
+        <v>1.41254618016164e-23</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>1.500590149099989e-23</v>
+        <v>1.505971447926968e-23</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>1.605489718323235e-23</v>
+        <v>1.611064354304671e-23</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>1.722842404974635e-23</v>
+        <v>1.728535962906951e-23</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>1.852093907575267e-23</v>
+        <v>1.857829264844042e-23</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>1.992155146860307e-23</v>
+        <v>1.997854174155183e-23</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.141935192934825e-23</v>
+        <v>2.147518760134936e-23</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.300343115903517e-23</v>
+        <v>2.305731092077486e-23</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.466287985871048e-23</v>
+        <v>2.471399239276989e-23</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>2.638678872942535e-23</v>
+        <v>2.643431271028052e-23</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>2.816424847222648e-23</v>
+        <v>2.820735256624836e-23</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>2.998434978816038e-23</v>
+        <v>3.002219265361484e-23</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>3.183321465645727e-23</v>
+        <v>3.186496943440637e-23</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>3.36834077185954e-23</v>
+        <v>3.37083738761219e-23</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>3.550362573230684e-23</v>
+        <v>3.55212609711822e-23</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>3.726256516345602e-23</v>
+        <v>3.727248542254827e-23</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>3.892892247790098e-23</v>
+        <v>3.893090193317472e-23</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>4.047139414150589e-23</v>
+        <v>4.046536520602228e-23</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>4.185867662013033e-23</v>
+        <v>4.184472994404711e-23</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>4.305946637963447e-23</v>
+        <v>4.303785085020591e-23</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>4.404245988588162e-23</v>
+        <v>4.401358262745861e-23</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>4.477635360473177e-23</v>
+        <v>4.474077997876172e-23</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>4.522984400204578e-23</v>
+        <v>4.518829760707269e-23</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>4.537162754368563e-23</v>
+        <v>4.532499021535006e-23</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.51704006955119e-23</v>
+        <v>4.511971250655098e-23</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>4.459485992338649e-23</v>
+        <v>4.45413191836339e-23</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>4.361370169316946e-23</v>
+        <v>4.355866494955547e-23</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>4.219562247072235e-23</v>
+        <v>4.214060450727378e-23</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>4.030931872190818e-23</v>
+        <v>4.025599255974841e-23</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>3.793585700720542e-23</v>
+        <v>3.788600447575174e-23</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>3.513923390444577e-23</v>
+        <v>3.509441426710798e-23</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>3.201753424674529e-23</v>
+        <v>3.19789479900319e-23</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>2.866894766140961e-23</v>
+        <v>2.863743607618806e-23</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>2.519166377575594e-23</v>
+        <v>2.516770895725255e-23</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>2.168387221708929e-23</v>
+        <v>2.16675970648893e-23</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>1.824376261272412e-23</v>
+        <v>1.823493083077164e-23</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>1.49695245899746e-23</v>
+        <v>1.496754068657266e-23</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>1.195934777614615e-23</v>
+        <v>1.196325706395665e-23</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>9.311421798553133e-24</v>
+        <v>9.319910394596901e-24</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>7.123858369483966e-24</v>
+        <v>7.135253502680207e-24</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>5.451612591119102e-24</v>
+        <v>5.464052946361469e-24</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>4.234891547523875e-24</v>
+        <v>4.246780189232046e-24</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>3.395041967972572e-24</v>
+        <v>3.405120784069719e-24</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>2.853410581737414e-24</v>
+        <v>2.860760283650204e-24</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>2.531344118093204e-24</v>
+        <v>2.535384240751801e-24</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>2.350189306313096e-24</v>
+        <v>2.350678208151153e-24</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>2.231552839587232e-24</v>
+        <v>2.228586540473211e-24</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>2.122867974121962e-24</v>
+        <v>2.116764707643713e-24</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>2.018952891112483e-24</v>
+        <v>2.010041288497328e-24</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>1.919701827249537e-24</v>
+        <v>1.908298226810763e-24</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>1.825009019223849e-24</v>
+        <v>1.81141746636071e-24</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>1.73476870372589e-24</v>
+        <v>1.719280950923597e-24</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>1.648875117446393e-24</v>
+        <v>1.631770624276121e-24</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>1.567222497076069e-24</v>
+        <v>1.548768430194958e-24</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>1.489705079305414e-24</v>
+        <v>1.470156312456564e-24</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>1.416217100825147e-24</v>
+        <v>1.39581621483762e-24</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>1.34665279832597e-24</v>
+        <v>1.325630081114793e-24</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>1.2809064084984e-24</v>
+        <v>1.259479855064562e-24</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>1.218872168033144e-24</v>
+        <v>1.197247480463596e-24</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>1.160444313620897e-24</v>
+        <v>1.138814901088552e-24</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>1.105517081952194e-24</v>
+        <v>1.084064060715928e-24</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>1.053984709717777e-24</v>
+        <v>1.03287690312243e-24</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>1.005741433608197e-24</v>
+        <v>9.851353720845681e-25</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>9.606814903141424e-25</v>
+        <v>9.407214113789973e-25</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>9.186991165262931e-25</v>
+        <v>8.995169647823573e-25</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>8.796885489352157e-25</v>
+        <v>8.614039760711792e-25</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>8.435440242315917e-25</v>
+        <v>8.262643890221055e-25</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>8.101597791060922e-25</v>
+        <v>7.939801474117701e-25</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>7.794300502492999e-25</v>
+        <v>7.644331950167194e-25</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>7.512490743518881e-25</v>
+        <v>7.375054756135885e-25</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>7.255110881045213e-25</v>
+        <v>7.130789329790033e-25</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>7.021103281977957e-25</v>
+        <v>6.910355108895252e-25</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>6.809410313223958e-25</v>
+        <v>6.712571531217982e-25</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>6.618974341689265e-25</v>
+        <v>6.536258034523928e-25</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>6.448737734280493e-25</v>
+        <v>6.380234056579316e-25</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>6.2976428579042e-25</v>
+        <v>6.24331903515032e-25</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>6.164632079466536e-25</v>
+        <v>6.124332408002738e-25</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>6.04864776587407e-25</v>
+        <v>6.022093612902751e-25</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>5.948632284033308e-25</v>
+        <v>5.935422087616481e-25</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>5.863528000850495e-25</v>
+        <v>5.863137269909823e-25</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>5.792277283232152e-25</v>
+        <v>5.80405859754891e-25</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>5.733822498084748e-25</v>
+        <v>5.757005508299825e-25</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>5.687106012314602e-25</v>
+        <v>5.72079743992854e-25</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>5.651070192828226e-25</v>
+        <v>5.694253830201166e-25</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>5.624657406531978e-25</v>
+        <v>5.676194116883709e-25</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>5.60681002033232e-25</v>
+        <v>5.665437737742243e-25</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>5.596470657009889e-25</v>
+        <v>5.660804432275954e-25</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>5.592849608412225e-25</v>
+        <v>5.661429581900738e-25</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>5.595931600699923e-25</v>
+        <v>5.667361799933958e-25</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>5.605840604928048e-25</v>
+        <v>5.6788139006815e-25</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>5.622700592151694e-25</v>
+        <v>5.695998698449279e-25</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>5.646635533425933e-25</v>
+        <v>5.719129007543189e-25</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>5.677769399805807e-25</v>
+        <v>5.748417642269097e-25</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>5.71622616234645e-25</v>
+        <v>5.78407741693295e-25</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>5.762129792102915e-25</v>
+        <v>5.82632114584063e-25</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>5.815604260130224e-25</v>
+        <v>5.875361643297981e-25</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>5.87677353748355e-25</v>
+        <v>5.931411723610991e-25</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>5.945761595217921e-25</v>
+        <v>5.994684201085518e-25</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>6.022692404388347e-25</v>
+        <v>6.065391890027393e-25</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>6.107689936050038e-25</v>
+        <v>6.143747604742638e-25</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>6.200878161257919e-25</v>
+        <v>6.229964159537013e-25</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>6.302381051067232e-25</v>
+        <v>6.324254368716569e-25</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>6.412322576532973e-25</v>
+        <v>6.426831046587132e-25</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>6.530826708710111e-25</v>
+        <v>6.537907007454492e-25</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>6.65801741865393e-25</v>
+        <v>6.65769506562475e-25</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>6.794018677419409e-25</v>
+        <v>6.78640803540371e-25</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>6.938954456061482e-25</v>
+        <v>6.924258731097133e-25</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>7.092948725635496e-25</v>
+        <v>7.071459967011173e-25</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>7.256125457196389e-25</v>
+        <v>7.228224557451603e-25</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>7.428608621799089e-25</v>
+        <v>7.394765316724173e-25</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>7.610522190498975e-25</v>
+        <v>7.571295059135074e-25</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>7.801990134350799e-25</v>
+        <v>7.758026598989889e-25</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>8.003136424409984e-25</v>
+        <v>7.955172750594852e-25</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>8.214085031731429e-25</v>
+        <v>8.162946328255695e-25</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>8.434959927370016e-25</v>
+        <v>8.381560146278117e-25</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>8.665885082381212e-25</v>
+        <v>8.611227018968406e-25</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>8.906984467819906e-25</v>
+        <v>8.852159760632272e-25</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>9.158382054740937e-25</v>
+        <v>9.104571185575376e-25</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>9.420201814199836e-25</v>
+        <v>9.368674108104074e-25</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>9.692567717251459e-25</v>
+        <v>9.644681342524041e-25</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>9.975603734950619e-25</v>
+        <v>9.932805703140909e-25</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.02694338383529e-24</v>
+        <v>1.023326000426109e-24</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.057418199851286e-24</v>
+        <v>1.054625706018996e-24</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.088997218648611e-24</v>
+        <v>1.087200968523395e-24</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.121692834474667e-24</v>
+        <v>1.121073066203796e-24</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.155435412478313e-24</v>
+        <v>1.156172408541967e-24</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.189858769591369e-24</v>
+        <v>1.192100899940641e-24</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.224529731585526e-24</v>
+        <v>1.228386234488377e-24</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.259015124232348e-24</v>
+        <v>1.264556106273601e-24</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.292881773303524e-24</v>
+        <v>1.300138209384872e-24</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.325696504570651e-24</v>
+        <v>1.334660237910649e-24</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.357026143805327e-24</v>
+        <v>1.367649885939395e-24</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.386437516779236e-24</v>
+        <v>1.398634847559661e-24</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.413497449263977e-24</v>
+        <v>1.427142816859909e-24</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.437772767031156e-24</v>
+        <v>1.452701487928611e-24</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.458830295852443e-24</v>
+        <v>1.474838554854305e-24</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.476236861499441e-24</v>
+        <v>1.493081711725456e-24</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.48955928974377e-24</v>
+        <v>1.506958652630549e-24</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.498364406357079e-24</v>
+        <v>1.515997071658099e-24</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.50221903711098e-24</v>
+        <v>1.519724662896585e-24</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.500690007777107e-24</v>
+        <v>1.517669120434504e-24</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.493344144127081e-24</v>
+        <v>1.509358138360342e-24</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.479789878752807e-24</v>
+        <v>1.494365119406244e-24</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.46036611936508e-24</v>
+        <v>1.473065955576109e-24</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.436034964009423e-24</v>
+        <v>1.446521166652324e-24</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.407778490740212e-24</v>
+        <v>1.415813222162501e-24</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.376578777611744e-24</v>
+        <v>1.382024591634167e-24</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.343417902678392e-24</v>
+        <v>1.346237744594928e-24</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.309277943994535e-24</v>
+        <v>1.309535150572402e-24</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.275140979614461e-24</v>
+        <v>1.272999279094103e-24</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.241989087592577e-24</v>
+        <v>1.237712599687678e-24</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.210804345983171e-24</v>
+        <v>1.204757581880645e-24</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.182568832840624e-24</v>
+        <v>1.175216695200618e-24</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.158264626219304e-24</v>
+        <v>1.150172409175201e-24</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.138873804173514e-24</v>
+        <v>1.130707193331929e-24</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.125378444757627e-24</v>
+        <v>1.11790351719841e-24</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.118756185233379e-24</v>
+        <v>1.112839011290942e-24</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.119222351079938e-24</v>
+        <v>1.115760635649236e-24</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.125371986373248e-24</v>
+        <v>1.125149773607763e-24</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.135592862615644e-24</v>
+        <v>1.139261949198487e-24</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>1.148272751309492e-24</v>
+        <v>1.15635268645341e-24</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>1.161799423957118e-24</v>
+        <v>1.174677509404481e-24</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>1.174560652060894e-24</v>
+        <v>1.192491942083712e-24</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>1.184944207123155e-24</v>
+        <v>1.208051508523062e-24</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>1.191337860646245e-24</v>
+        <v>1.219611732754509e-24</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>1.192180492111827e-24</v>
+        <v>1.225475906645904e-24</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>1.187520031355325e-24</v>
+        <v>1.225451213517109e-24</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>1.179299073757313e-24</v>
+        <v>1.221115677054196e-24</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>1.1695689242344e-24</v>
+        <v>1.214148925807023e-24</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>1.160380887703222e-24</v>
+        <v>1.206230588325463e-24</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>1.15378626908041e-24</v>
+        <v>1.199040293159387e-24</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>1.151836373282578e-24</v>
+        <v>1.194257668858652e-24</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>1.156378783978019e-24</v>
+        <v>1.193423154978694e-24</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>1.165818354074077e-24</v>
+        <v>1.195725005249297e-24</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>1.175692270887657e-24</v>
+        <v>1.198392190835626e-24</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>1.181450219197212e-24</v>
+        <v>1.198593898317617e-24</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>1.178541883781213e-24</v>
+        <v>1.193499314275211e-24</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>1.163662817621241e-24</v>
+        <v>1.180994860141068e-24</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>1.139083105783285e-24</v>
+        <v>1.162176164139224e-24</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>1.108631346442906e-24</v>
+        <v>1.139036076140276e-24</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>1.076136210423999e-24</v>
+        <v>1.11356748783781e-24</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>1.044819697617724e-24</v>
+        <v>1.087464495548544e-24</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>1.015199235794942e-24</v>
+        <v>1.061089149495707e-24</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>9.870388620785826e-25</v>
+        <v>1.034432442661411e-24</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>9.601025816886072e-25</v>
+        <v>1.007485352315041e-24</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>9.341543998449057e-25</v>
+        <v>9.802388557259073e-25</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>9.089583217674407e-25</v>
+        <v>9.526839301633933e-25</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>8.842783526761714e-25</v>
+        <v>9.24811552896882e-25</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>8.598784977909928e-25</v>
+        <v>8.966127011956838e-25</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>8.355227623318863e-25</v>
+        <v>8.680783523292078e-25</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>8.109751515187462e-25</v>
+        <v>8.391994835667624e-25</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>7.859996705715327e-25</v>
+        <v>8.099670721777317e-25</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>7.603603247101836e-25</v>
+        <v>7.803720954314747e-25</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>7.338211191546611e-25</v>
+        <v>7.50405530597378e-25</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>7.061593980010972e-25</v>
+        <v>7.200649433131541e-25</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>6.774746138021402e-25</v>
+        <v>6.895069957656657e-25</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>6.481970724667994e-25</v>
+        <v>6.590517659918331e-25</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>6.187721681538301e-25</v>
+        <v>6.290267844516113e-25</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>5.896452950219885e-25</v>
+        <v>5.997595816049524e-25</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>5.61261847229951e-25</v>
+        <v>5.715776879117306e-25</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>5.340672189364741e-25</v>
+        <v>5.448086338318996e-25</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>5.085068043003099e-25</v>
+        <v>5.197799498254076e-25</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>4.850259974801413e-25</v>
+        <v>4.968191663521363e-25</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>4.640701926347224e-25</v>
+        <v>4.76253813872036e-25</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>4.460847839227974e-25</v>
+        <v>4.584114228450482e-25</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>4.315151655030636e-25</v>
+        <v>4.436195237310673e-25</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>4.20806731534276e-25</v>
+        <v>4.322056469900463e-25</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>4.143500777830997e-25</v>
+        <v>4.24486305454391e-25</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>4.122253684585819e-25</v>
+        <v>4.207155973648186e-25</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>4.144035801965456e-25</v>
+        <v>4.21125667981947e-25</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>4.208555689591285e-25</v>
+        <v>4.259486383040461e-25</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>4.315521907084646e-25</v>
+        <v>4.354166293293874e-25</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>4.464643014066722e-25</v>
+        <v>4.497617620562249e-25</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>4.655627570159118e-25</v>
+        <v>4.692161574828542e-25</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>4.88818413498306e-25</v>
+        <v>4.940119366075341e-25</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>5.162021517679474e-25</v>
+        <v>5.243812446043895e-25</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>5.521891876706113e-25</v>
+        <v>5.649204598772816e-25</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>6.183246541356218e-25</v>
+        <v>6.367649395016194e-25</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>7.399077908524878e-25</v>
+        <v>7.646778544416477e-25</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>9.235694203806278e-25</v>
+        <v>9.547189379484079e-25</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>1.146207810115838e-24</v>
+        <v>1.183159592013702e-24</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>1.382068174786718e-24</v>
+        <v>1.423613189029682e-24</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>1.605395729121262e-24</v>
+        <v>1.649693101387873e-24</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.790435687847511e-24</v>
+        <v>1.835012701479856e-24</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.911748565220153e-24</v>
+        <v>1.953515814476745e-24</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.963998266404059e-24</v>
+        <v>2.00021582272716e-24</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.973710384500632e-24</v>
+        <v>2.003519064959533e-24</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.970234955996789e-24</v>
+        <v>1.994792065657579e-24</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.9829220173794e-24</v>
+        <v>2.005401349304989e-24</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>2.038116201717111e-24</v>
+        <v>2.063447258396988e-24</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>2.132983656315122e-24</v>
+        <v>2.165319835216567e-24</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>2.248282534165662e-24</v>
+        <v>2.289577407619748e-24</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>2.364588136412055e-24</v>
+        <v>2.414579585576022e-24</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>2.46247576419795e-24</v>
+        <v>2.518685979055227e-24</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>2.523796287203099e-24</v>
+        <v>2.581720359058501e-24</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>2.544749446651726e-24</v>
+        <v>2.599976845269463e-24</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>2.53056955594041e-24</v>
+        <v>2.58011988882359e-24</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>2.486631805497197e-24</v>
+        <v>2.528975646522364e-24</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>2.418311385750008e-24</v>
+        <v>2.453370275167122e-24</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>2.330965934806269e-24</v>
+        <v>2.360096367779557e-24</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>2.229148089552897e-24</v>
+        <v>2.254407183392578e-24</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>2.116287691877337e-24</v>
+        <v>2.139408957580248e-24</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>1.995731258528138e-24</v>
+        <v>2.018048590482909e-24</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>1.870825306253871e-24</v>
+        <v>1.893272982240924e-24</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>1.74491635180277e-24</v>
+        <v>1.768029032994318e-24</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>1.621350911923516e-24</v>
+        <v>1.645263642883561e-24</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>1.503432753917883e-24</v>
+        <v>1.527886545553309e-24</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>1.392973126765637e-24</v>
+        <v>1.417509874798416e-24</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>1.289937103897721e-24</v>
+        <v>1.3141406939234e-24</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>1.194175273678447e-24</v>
+        <v>1.217686532576721e-24</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>1.105538224472402e-24</v>
+        <v>1.128054920407117e-24</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>1.023876544644155e-24</v>
+        <v>1.045153387063304e-24</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>9.490408225580507e-25</v>
+        <v>9.688894621937763e-25</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>8.808816465786627e-25</v>
+        <v>8.991706754472549e-25</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>8.192496050705378e-25</v>
+        <v>8.359045564724375e-25</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>7.639952863980594e-25</v>
+        <v>7.789986349178538e-25</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>7.149692789258227e-25</v>
+        <v>7.283604404322501e-25</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>6.720221710182339e-25</v>
+        <v>6.838975026641787e-25</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>6.350045510398347e-25</v>
+        <v>6.455173512623317e-25</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>6.037491524243408e-25</v>
+        <v>6.131081874332696e-25</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>5.776043756976467e-25</v>
+        <v>5.860339090035299e-25</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>5.553894394279479e-25</v>
+        <v>5.630855601186656e-25</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>5.358967153840732e-25</v>
+        <v>5.430251225429104e-25</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>5.17918575334775e-25</v>
+        <v>5.246145780404187e-25</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>5.002473910488584e-25</v>
+        <v>5.066159083753994e-25</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>4.816755342951276e-25</v>
+        <v>4.8779109531206e-25</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>4.609953768423363e-25</v>
+        <v>4.669021206145576e-25</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>4.370001577206098e-25</v>
+        <v>4.427118432328209e-25</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>4.091726404274776e-25</v>
+        <v>4.146805370743932e-25</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>3.789240287006168e-25</v>
+        <v>3.842189841606299e-25</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>3.480000767079528e-25</v>
+        <v>3.53076345330696e-25</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>3.181465386174133e-25</v>
+        <v>3.23001781423759e-25</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>2.911091685968447e-25</v>
+        <v>2.957444532789046e-25</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>2.686337208141943e-25</v>
+        <v>2.730535217353196e-25</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>2.524659494373218e-25</v>
+        <v>2.566781476321032e-25</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>2.443516086341517e-25</v>
+        <v>2.483674918084194e-25</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>2.460364525725793e-25</v>
+        <v>2.498707151034033e-25</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>2.592662354205079e-25</v>
+        <v>2.629369783561973e-25</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>2.857867113458425e-25</v>
+        <v>2.893154424059462e-25</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>3.273436345164401e-25</v>
+        <v>3.307552680917465e-25</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>3.856827591002761e-25</v>
+        <v>3.89005616252813e-25</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>4.632219530751211e-25</v>
+        <v>4.665005612270765e-25</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.707893008282206e-25</v>
+        <v>5.742445573417e-25</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>7.249364035667069e-25</v>
+        <v>7.290745740022782e-25</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>9.42324560824029e-25</v>
+        <v>9.479393680280711e-25</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>1.239615072134326e-24</v>
+        <v>1.247787696239033e-24</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>1.633469237031192e-24</v>
+        <v>1.64556831545457e-24</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>2.1215697819631e-24</v>
+        <v>2.13892572316671e-24</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>2.528105530749258e-24</v>
+        <v>2.549033231544264e-24</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>2.584285137178951e-24</v>
+        <v>2.60248837477153e-24</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>2.318301479903672e-24</v>
+        <v>2.32764116724334e-24</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>2.395659725587321e-24</v>
+        <v>2.400987630657951e-24</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>2.694506715552512e-24</v>
+        <v>2.69998756733798e-24</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>2.994160133214417e-24</v>
+        <v>3.001765436371223e-24</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>3.093707218144694e-24</v>
+        <v>3.103325244740799e-24</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>3.000635568554976e-24</v>
+        <v>3.011230833661386e-24</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>2.847366067890281e-24</v>
+        <v>2.8576744200106e-24</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>2.766763299871588e-24</v>
+        <v>2.775310084521476e-24</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>2.797883316769439e-24</v>
+        <v>2.803639490248842e-24</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>2.826714429568687e-24</v>
+        <v>2.830140700927363e-24</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>2.798901369034005e-24</v>
+        <v>2.801075123017038e-24</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>2.723098224583501e-24</v>
+        <v>2.72488834498186e-24</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>2.60993245663516e-24</v>
+        <v>2.611973482828396e-24</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>2.470031525607157e-24</v>
+        <v>2.472723652563405e-24</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>2.314022891917766e-24</v>
+        <v>2.317531970193744e-24</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>2.152534015984827e-24</v>
+        <v>2.156791551725834e-24</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>1.99578587281591e-24</v>
+        <v>2.000501721135355e-24</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>1.848169327923334e-24</v>
+        <v>1.853013750586826e-24</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>1.709712764798674e-24</v>
+        <v>1.714452658089763e-24</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>1.580339366887822e-24</v>
+        <v>1.584841546705261e-24</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>1.459972317636635e-24</v>
+        <v>1.464203519494379e-24</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>1.34853480049065e-24</v>
+        <v>1.352561679517859e-24</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>1.245949998895822e-24</v>
+        <v>1.249939129836858e-24</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>1.152141096297718e-24</v>
+        <v>1.156358973512147e-24</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>1.067032129791038e-24</v>
+        <v>1.071844856222495e-24</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>9.90789185998042e-25</v>
+        <v>9.965742812446894e-25</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>9.241520107241718e-25</v>
+        <v>9.310893955087593e-25</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>8.679434616677159e-25</v>
+        <v>8.759851756128953e-25</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>8.229863965269272e-25</v>
+        <v>8.318565981552509e-25</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>7.899855832097323e-25</v>
+        <v>7.991911192466393e-25</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>7.676609236226305e-25</v>
+        <v>7.766689789873109e-25</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>7.530846449592649e-25</v>
+        <v>7.614702133734865e-25</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>7.432790565661254e-25</v>
+        <v>7.507294083143104e-25</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>7.352664677897497e-25</v>
+        <v>7.415811497189786e-25</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>7.260691879766403e-25</v>
+        <v>7.311600234966468e-25</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>7.127095264733188e-25</v>
+        <v>7.166006155564938e-25</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>6.925387012741068e-25</v>
+        <v>6.953620285160267e-25</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>6.662587813488955e-25</v>
+        <v>6.682094718280787e-25</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>6.365285144856251e-25</v>
+        <v>6.378387060986306e-25</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>6.060311684752354e-25</v>
+        <v>6.069696845193991e-25</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>5.774500111085819e-25</v>
+        <v>5.783223602820163e-25</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>5.534559773941847e-25</v>
+        <v>5.546038007431517e-25</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>5.3482587631024e-25</v>
+        <v>5.365420068367176e-25</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>5.184190313597904e-25</v>
+        <v>5.207718178794031e-25</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>5.007761326696972e-25</v>
+        <v>5.035990995460904e-25</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>4.807508349686546e-25</v>
+        <v>4.838011964995004e-25</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>4.588890024148089e-25</v>
+        <v>4.619636350081517e-25</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>4.357752193882843e-25</v>
+        <v>4.387133151752299e-25</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>4.119940702692271e-25</v>
+        <v>4.146771371039422e-25</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>3.881301394377186e-25</v>
+        <v>3.904820008974304e-25</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>3.647680112739252e-25</v>
+        <v>3.667548066589222e-25</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>3.424888784257467e-25</v>
+        <v>3.441188287242648e-25</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>3.216445887958225e-25</v>
+        <v>3.229521715184541e-25</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>3.022157931476539e-25</v>
+        <v>3.032361291126845e-25</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>2.841493014999531e-25</v>
+        <v>2.849158197661743e-25</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>2.673919238714857e-25</v>
+        <v>2.679363617381955e-25</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>2.518904702810121e-25</v>
+        <v>2.522428732880153e-25</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>2.375917507472517e-25</v>
+        <v>2.377804726748592e-25</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>2.244425752889663e-25</v>
+        <v>2.244942781579955e-25</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>2.123897539249137e-25</v>
+        <v>2.123294079966885e-25</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>2.013800966738192e-25</v>
+        <v>2.0123098045017e-25</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>1.913604135544501e-25</v>
+        <v>1.911441137777136e-25</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>1.822775145855356e-25</v>
+        <v>1.820139262385549e-25</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>1.740782097858326e-25</v>
+        <v>1.737855360919572e-25</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>1.667093091740943e-25</v>
+        <v>1.664040615971804e-25</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>1.601176227690549e-25</v>
+        <v>1.598146210134649e-25</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>1.542499605894686e-25</v>
+        <v>1.539623326000714e-25</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>1.490531326540871e-25</v>
+        <v>1.487923146162579e-25</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>1.444739489816482e-25</v>
+        <v>1.442496853212689e-25</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>1.404592195909043e-25</v>
+        <v>1.40279562974363e-25</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>1.369557545006054e-25</v>
+        <v>1.368270658347967e-25</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>1.339103637294926e-25</v>
+        <v>1.338373121618176e-25</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>1.312698572963187e-25</v>
+        <v>1.312554202146847e-25</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>1.289810452198262e-25</v>
+        <v>1.290265082526473e-25</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>1.269907375187649e-25</v>
+        <v>1.270956945349614e-25</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>1.252457442118821e-25</v>
+        <v>1.254080973208806e-25</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>1.236928753179262e-25</v>
+        <v>1.239088348696602e-25</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>1.22278940855642e-25</v>
+        <v>1.225430254405508e-25</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>1.20956997946026e-25</v>
+        <v>1.212622793011148e-25</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>1.197148943563289e-25</v>
+        <v>1.200543612679388e-25</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>1.185525178680103e-25</v>
+        <v>1.189195481782486e-25</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>1.174697678970072e-25</v>
+        <v>1.178581289598553e-25</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>1.164665438592538e-25</v>
+        <v>1.168703925405674e-25</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>1.15542745170687e-25</v>
+        <v>1.15956627848196e-25</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>1.146982712472437e-25</v>
+        <v>1.15117123810552e-25</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>1.139330215048584e-25</v>
+        <v>1.143521693554443e-25</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>1.132468953594678e-25</v>
+        <v>1.136620534106837e-25</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>1.126397922270086e-25</v>
+        <v>1.130470649040812e-25</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>1.121116115234156e-25</v>
+        <v>1.125074927634457e-25</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>1.116622526646259e-25</v>
+        <v>1.120436259165886e-25</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>1.112916150665747e-25</v>
+        <v>1.116557532913191e-25</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>1.109995981451985e-25</v>
+        <v>1.113441638154481e-25</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>1.107861013164334e-25</v>
+        <v>1.111091464167858e-25</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>1.106510239962152e-25</v>
+        <v>1.109509900231421e-25</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>1.1059426560048e-25</v>
+        <v>1.108699835623276e-25</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>1.106157255451639e-25</v>
+        <v>1.108664159621523e-25</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>1.107153032462029e-25</v>
+        <v>1.109405761504266e-25</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>1.108928981195331e-25</v>
+        <v>1.110927530549606e-25</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>1.111484095810903e-25</v>
+        <v>1.113232356035644e-25</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>1.11481737046811e-25</v>
+        <v>1.116323127240487e-25</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>1.118927799326305e-25</v>
+        <v>1.12020273344223e-25</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>1.123814376544857e-25</v>
+        <v>1.124874063918984e-25</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>1.129476096283122e-25</v>
+        <v>1.130340007948848e-25</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>1.135911952700456e-25</v>
+        <v>1.136603454809917e-25</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>1.143120939956229e-25</v>
+        <v>1.143667293780306e-25</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>1.151102052209798e-25</v>
+        <v>1.151534414138112e-25</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>1.159854283620513e-25</v>
+        <v>1.160207705161428e-25</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>1.169376628347751e-25</v>
+        <v>1.169690056128373e-25</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>1.179668080550865e-25</v>
+        <v>1.179984356317042e-25</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>1.190727634389205e-25</v>
+        <v>1.191093495005526e-25</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>1.202554284022151e-25</v>
+        <v>1.203020361471948e-25</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>1.215147023609043e-25</v>
+        <v>1.215767844994389e-25</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>1.228504847309263e-25</v>
+        <v>1.229338834850974e-25</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>1.242697908011223e-25</v>
+        <v>1.24380480465452e-25</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>1.258132587555234e-25</v>
+        <v>1.259561292813344e-25</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>1.275314479271107e-25</v>
+        <v>1.277099459932703e-25</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>1.294749190868637e-25</v>
+        <v>1.296910480477599e-25</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>1.316942330057551e-25</v>
+        <v>1.319485528912967e-25</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.342399504547655e-25</v>
+        <v>1.345315779703816e-25</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.371626322048692e-25</v>
+        <v>1.3748924073151e-25</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.405128390270396e-25</v>
+        <v>1.408706586211756e-25</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.44341131692259e-25</v>
+        <v>1.447249490858816e-25</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.486980709715012e-25</v>
+        <v>1.491012295721223e-25</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.536342176357377e-25</v>
+        <v>1.540486175263899e-25</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.591964910309936e-25</v>
+        <v>1.596126485413424e-25</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.653667658263651e-25</v>
+        <v>1.65774877617177e-25</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.720708281145145e-25</v>
+        <v>1.724616887467173e-25</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.792326261151998e-25</v>
+        <v>1.795976581161705e-25</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.86776108048154e-25</v>
+        <v>1.871073619117195e-25</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.946252221331366e-25</v>
+        <v>1.949153763195731e-25</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>2.027039165898866e-25</v>
+        <v>2.029462775259203e-25</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>2.109361396381426e-25</v>
+        <v>2.111246417169488e-25</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>2.19245839497665e-25</v>
+        <v>2.193750450788689e-25</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>2.275569643881924e-25</v>
+        <v>2.276220637978687e-25</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>2.357934625294633e-25</v>
+        <v>2.357902740601363e-25</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>2.438792821412381e-25</v>
+        <v>2.438042520518818e-25</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>2.517383714432553e-25</v>
+        <v>2.51588573959293e-25</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>2.592946786552542e-25</v>
+        <v>2.590678159685592e-25</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>2.66472151996994e-25</v>
+        <v>2.661665542658888e-25</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>2.732610508261382e-25</v>
+        <v>2.728759145690519e-25</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>2.799575694070584e-25</v>
+        <v>2.794940573621187e-25</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>2.869460720455358e-25</v>
+        <v>2.864076301486702e-25</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>2.946109312773166e-25</v>
+        <v>2.940032886918401e-25</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>3.03336519638168e-25</v>
+        <v>3.026676887547826e-25</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>3.135072096638375e-25</v>
+        <v>3.127874861006326e-25</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>3.255073738900669e-25</v>
+        <v>3.247493364925192e-25</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>3.397213848526314e-25</v>
+        <v>3.389398956936048e-25</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>3.565332580730082e-25</v>
+        <v>3.557454541529535e-25</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>3.762164150192869e-25</v>
+        <v>3.754391371965496e-25</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>3.987776715992458e-25</v>
+        <v>3.98021266594287e-25</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>4.241844776587195e-25</v>
+        <v>4.234518828793343e-25</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>4.524042830435327e-25</v>
+        <v>4.516910265848502e-25</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>4.834045375995874e-25</v>
+        <v>4.82698738244071e-25</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>5.171526911727107e-25</v>
+        <v>5.164350583901576e-25</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>5.536161936087203e-25</v>
+        <v>5.528600275562615e-25</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>5.927624947535326e-25</v>
+        <v>5.919336862756337e-25</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>6.345248943360507e-25</v>
+        <v>6.335832130174563e-25</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>6.784199739708684e-25</v>
+        <v>6.77334785652198e-25</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>7.236857932791288e-25</v>
+        <v>7.224465651768179e-25</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>7.695553153259687e-25</v>
+        <v>7.681718082610101e-25</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>8.152615031766487e-25</v>
+        <v>8.137637715745923e-25</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>8.600373198963058e-25</v>
+        <v>8.584757117872582e-25</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>9.031157285500806e-25</v>
+        <v>9.015608855687062e-25</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>9.437296922032288e-25</v>
+        <v>9.422725495887483e-25</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>9.811121739208891e-25</v>
+        <v>9.798639605170808e-25</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>1.014472467708988e-24</v>
+        <v>1.013561858917053e-24</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>1.042682910313672e-24</v>
+        <v>1.042215496984027e-24</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>1.064364973816113e-24</v>
+        <v>1.064393086840139e-24</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>1.078134150992031e-24</v>
+        <v>1.078656142077688e-24</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>1.082605934617085e-24</v>
+        <v>1.083566176288909e-24</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>1.076395817466966e-24</v>
+        <v>1.077684703066068e-24</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>1.058120093867047e-24</v>
+        <v>1.059574053668708e-24</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>1.027695575816253e-24</v>
+        <v>1.029123227888201e-24</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>9.889842407513171e-25</v>
+        <v>9.902457204886897e-25</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>9.465933468656076e-25</v>
+        <v>9.476152931244318e-25</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>9.051301520113123e-25</v>
+        <v>9.059057071039027e-25</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>8.682762599924675e-25</v>
+        <v>8.688525890787365e-25</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>8.360900160311036e-25</v>
+        <v>8.365194546637631e-25</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>8.07743366698072e-25</v>
+        <v>8.080714694951024e-25</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>7.824082585641142e-25</v>
+        <v>7.826737992087639e-25</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>7.59256638200049e-25</v>
+        <v>7.594916094408339e-25</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>7.374604521766685e-25</v>
+        <v>7.376900658273733e-25</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>7.161916470647829e-25</v>
+        <v>7.164343340044601e-25</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>6.94622169435147e-25</v>
+        <v>6.948895796081169e-25</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>6.719239658585928e-25</v>
+        <v>6.722209682744443e-25</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>6.474095564951635e-25</v>
+        <v>6.477349366116573e-25</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>6.212008992032432e-25</v>
+        <v>6.215513745313442e-25</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>5.937090785860664e-25</v>
+        <v>5.940807330422282e-25</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>5.653455400881463e-25</v>
+        <v>5.657338257844388e-25</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>5.365217291540714e-25</v>
+        <v>5.369214663981799e-25</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>5.07649091228431e-25</v>
+        <v>5.080544685236566e-25</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>4.791390717557365e-25</v>
+        <v>4.795436458009963e-25</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>4.514031161805777e-25</v>
+        <v>4.517998118704045e-25</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>4.24850674680637e-25</v>
+        <v>4.252317943018293e-25</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>3.996977383511401e-25</v>
+        <v>4.000558532807239e-25</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>3.7580795039456e-25</v>
+        <v>3.761375251532787e-25</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>3.530075540445572e-25</v>
+        <v>3.53305118682037e-25</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>3.311227925348574e-25</v>
+        <v>3.313869426296071e-25</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>3.099799090991828e-25</v>
+        <v>3.10211305758594e-25</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.894051469711991e-25</v>
+        <v>2.896065168315461e-25</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>2.692247493846291e-25</v>
+        <v>2.69400884611069e-25</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>2.492649595731943e-25</v>
+        <v>2.494227178597669e-25</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>2.293603315300597e-25</v>
+        <v>2.295085321831736e-25</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.095424728313137e-25</v>
+        <v>2.096894328407448e-25</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>1.900433827552587e-25</v>
+        <v>1.901944111257951e-25</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>1.711040390225681e-25</v>
+        <v>1.712613245088875e-25</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>1.52965419353984e-25</v>
+        <v>1.531280304606535e-25</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>1.358685014701822e-25</v>
+        <v>1.360323864516584e-25</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.200542630918881e-25</v>
+        <v>1.202122499525169e-25</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.057636819398222e-25</v>
+        <v>1.059054784338392e-25</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>9.323773573466737e-26</v>
+        <v>9.334992936619752e-26</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>8.269769483966824e-26</v>
+        <v>8.276566502478273e-26</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>7.4279709398442e-26</v>
+        <v>7.429588649503627e-26</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>6.809695329388715e-26</v>
+        <v>6.806304793831102e-26</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>6.426307575209106e-26</v>
+        <v>6.419003653726688e-26</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>6.292243105125362e-26</v>
+        <v>6.282771053751198e-26</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>6.419064601271175e-26</v>
+        <v>6.409319005197514e-26</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>6.769114685944808e-26</v>
+        <v>6.760679398343816e-26</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>7.285172538356801e-26</v>
+        <v>7.279154716532865e-26</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>7.909970033212334e-26</v>
+        <v>7.90699973730063e-26</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>8.586050213148074e-26</v>
+        <v>8.586286018709747e-26</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>9.251593400004487e-26</v>
+        <v>9.25485206978134e-26</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>9.840406287450581e-26</v>
+        <v>9.846292767316284e-26</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.028610455560468e-25</v>
+        <v>1.029401765199936e-25</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.052230388458687e-25</v>
+        <v>1.053143626451712e-25</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.048267230286305e-25</v>
+        <v>1.049201051895506e-25</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.015528515151577e-25</v>
+        <v>1.016363568053124e-25</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>9.685512121259401e-26</v>
+        <v>9.691576642789508e-26</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>9.246982156058115e-26</v>
+        <v>9.249371076974145e-26</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>9.004267028578166e-26</v>
+        <v>9.001547522158098e-26</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>8.952007595715947e-26</v>
+        <v>8.943604913157618e-26</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>8.933844439088441e-26</v>
+        <v>8.920842813135539e-26</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>8.788163661730311e-26</v>
+        <v>8.773334176362947e-26</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>8.389873244982756e-26</v>
+        <v>8.377201749848222e-26</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>7.768484966192698e-26</v>
+        <v>7.761173651978175e-26</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>6.994413287325972e-26</v>
+        <v>6.994351973434658e-26</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>6.138072930715095e-26</v>
+        <v>6.145839061900674e-26</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>5.269878618692871e-26</v>
+        <v>5.284737265059521e-26</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>4.46024023346807e-26</v>
+        <v>4.480144199621045e-26</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>3.762213200815673e-26</v>
+        <v>3.784194389744168e-26</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>3.17250526350443e-26</v>
+        <v>3.193945384661281e-26</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>2.676407982590947e-26</v>
+        <v>2.695296000532317e-26</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>2.259212919133465e-26</v>
+        <v>2.27414505351884e-26</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>1.906211634189939e-26</v>
+        <v>1.916391359782137e-26</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>1.602695688817405e-26</v>
+        <v>1.607933735482559e-26</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>1.333956925751184e-26</v>
+        <v>1.334671279594657e-26</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>1.098420364636717e-26</v>
+        <v>1.095688567964436e-26</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>9.246889342394636e-27</v>
+        <v>9.20117364596526e-27</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>8.068468224305931e-27</v>
+        <v>8.017995061723066e-27</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>7.319533395119055e-27</v>
+        <v>7.274263175748415e-27</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.870677957850242e-27</v>
+        <v>6.836891236870199e-27</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.592495015518038e-27</v>
+        <v>6.572792493919596e-27</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.373352550634697e-27</v>
+        <v>6.367169682418668e-27</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.185892900791784e-27</v>
+        <v>6.191939751403156e-27</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.027709092984947e-27</v>
+        <v>6.04469269607173e-27</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>5.896397984383611e-27</v>
+        <v>5.92302245268567e-27</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>5.789556432157645e-27</v>
+        <v>5.824522957506667e-27</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>5.704781293476826e-27</v>
+        <v>5.746788146796331e-27</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>5.639669425510714e-27</v>
+        <v>5.687411956816069e-27</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>5.591817685429105e-27</v>
+        <v>5.643988323827508e-27</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>5.558822930401737e-27</v>
+        <v>5.614111184092216e-27</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>5.538282017598262e-27</v>
+        <v>5.595374473871689e-27</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>5.527791804188434e-27</v>
+        <v>5.585372129427511e-27</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>5.524951284995146e-27</v>
+        <v>5.581700471174345e-27</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>5.527770229524876e-27</v>
+        <v>5.582413962011554e-27</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>5.535154900645571e-27</v>
+        <v>5.586566935844579e-27</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>5.546129822465127e-27</v>
+        <v>5.593345624917477e-27</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>5.559719519091421e-27</v>
+        <v>5.601936261474297e-27</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>5.574948514632325e-27</v>
+        <v>5.611525077759081e-27</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>5.590841333195747e-27</v>
+        <v>5.621298306015894e-27</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>5.606422498889558e-27</v>
+        <v>5.630442178488782e-27</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>5.62071653582163e-27</v>
+        <v>5.638142927421785e-27</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>5.632747968099869e-27</v>
+        <v>5.643586785058971e-27</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>5.641541319832143e-27</v>
+        <v>5.64595998364438e-27</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>5.646121115126349e-27</v>
+        <v>5.644448755422069e-27</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>5.645511878090361e-27</v>
+        <v>5.638239332636083e-27</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>5.638738132832071e-27</v>
+        <v>5.626517947530484e-27</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>5.624824403459348e-27</v>
+        <v>5.608470832349305e-27</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>5.602795214080082e-27</v>
+        <v>5.5832842193366e-27</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>5.571675088802187e-27</v>
+        <v>5.550144340736457e-27</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>5.530488551733491e-27</v>
+        <v>5.508237428792867e-27</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>5.478260126981899e-27</v>
+        <v>5.4567497157499e-27</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>5.415049781924852e-27</v>
+        <v>5.395830341506638e-27</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>5.345693381965686e-27</v>
+        <v>5.330069779354292e-27</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>5.276402843299764e-27</v>
+        <v>5.265338157279122e-27</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>5.213390209892666e-27</v>
+        <v>5.20750572208696e-27</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>5.162867525710166e-27</v>
+        <v>5.162442720583814e-27</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>5.131046834717973e-27</v>
+        <v>5.136019399575633e-27</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>5.124140180881787e-27</v>
+        <v>5.134106005868356e-27</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>5.148359608167306e-27</v>
+        <v>5.162572786267924e-27</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>5.209917160540179e-27</v>
+        <v>5.227289987580223e-27</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>5.315024881966223e-27</v>
+        <v>5.334127856611314e-27</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>5.469894816411112e-27</v>
+        <v>5.488956640167108e-27</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>5.680739007840336e-27</v>
+        <v>5.697646585053338e-27</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>5.953769500219981e-27</v>
+        <v>5.966067938076326e-27</v>
       </c>
     </row>
   </sheetData>
